--- a/public/assets/csk_initial_data.xlsx
+++ b/public/assets/csk_initial_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tusha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472345D3-6CF1-4A50-9B87-75EDD5E6E7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4F70D0-977C-4D04-B8AD-2C0EFBD502E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
   <si>
     <t>Parameter</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Experience</t>
   </si>
   <si>
-    <t>Linkedin Profile</t>
-  </si>
-  <si>
     <t>N. Srinivasan</t>
   </si>
   <si>
@@ -426,16 +423,7 @@
     <t>20 yrs</t>
   </si>
   <si>
-    <t>21 yrs</t>
-  </si>
-  <si>
-    <t>22 yrs</t>
-  </si>
-  <si>
-    <t>23 yrs</t>
-  </si>
-  <si>
-    <t>24 yrs</t>
+    <t>Linkedin</t>
   </si>
 </sst>
 </file>
@@ -820,16 +808,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,7 +831,7 @@
         <v>-0.13800000000000001</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1357,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
@@ -1386,7 +1374,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>14128</v>
@@ -1403,7 +1391,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>1701</v>
@@ -1414,7 +1402,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1428,7 +1416,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>2191</v>
@@ -1445,7 +1433,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>86</v>
@@ -1453,7 +1441,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>15302</v>
@@ -1470,7 +1458,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>31621</v>
@@ -1502,7 +1490,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
@@ -1519,7 +1507,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>308</v>
@@ -1536,7 +1524,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -1553,7 +1541,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4">
         <v>21303</v>
@@ -1570,7 +1558,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>6500</v>
@@ -1584,7 +1572,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>1354</v>
@@ -1601,7 +1589,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>2156</v>
@@ -1618,7 +1606,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>31621</v>
@@ -1650,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
@@ -1667,7 +1655,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>5919</v>
@@ -1684,7 +1672,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>6193</v>
@@ -1701,7 +1689,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>-1659</v>
@@ -1718,7 +1706,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>-86</v>
@@ -1726,7 +1714,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>918</v>
@@ -1743,7 +1731,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>5160</v>
@@ -1754,7 +1742,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>-741</v>
@@ -1771,7 +1759,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>5452</v>
@@ -1805,7 +1793,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>3689</v>
@@ -1822,7 +1810,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>-486</v>
@@ -1839,12 +1827,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -1861,7 +1849,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15">
         <v>50</v>
@@ -1869,17 +1857,17 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>-526</v>
@@ -1896,7 +1884,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>-526</v>
@@ -1913,7 +1901,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>3263</v>
@@ -1930,7 +1918,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>8917</v>
@@ -1947,7 +1935,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>12180</v>
@@ -2170,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2189,77 +2177,21 @@
         <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
